--- a/Analysis/Formal Analysis NAV3/B Variation/15 x 15 CA 15 Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/B Variation/15 x 15 CA 15 Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\B Variation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0B8E8D95-6F77-47C9-B12E-2D6BABEA98BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E75AD2-D3C7-4D68-B5AD-51AF2EA48BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B15CA15_output" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Trial Number</t>
   </si>
@@ -80,12 +90,24 @@
   </si>
   <si>
     <t>5th Percentile</t>
+  </si>
+  <si>
+    <t>B15CA15v2data0</t>
+  </si>
+  <si>
+    <t>B15CA15v2data1</t>
+  </si>
+  <si>
+    <t>B15CA15v2data2</t>
+  </si>
+  <si>
+    <t>B15CA15v2data3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,11 +942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1066,116 +1088,184 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>7888</v>
+      </c>
+      <c r="C9">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>738.17902803420998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>7858</v>
+      </c>
+      <c r="C10">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>1241.1199295520701</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>8835</v>
+      </c>
+      <c r="C11">
+        <v>107</v>
+      </c>
+      <c r="D11">
+        <v>772.86052513122502</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>7104</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>1065.7282607555301</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
-        <f>AVERAGE(B$2:B$6)</f>
-        <v>7666.8</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:D10" si="0">AVERAGE(C$2:C$6)</f>
-        <v>96.4</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B14" s="1">
+        <f>AVERAGE(B$2:B$12)</f>
+        <v>7815.454545454545</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:D14" si="0">AVERAGE(C$2:C$12)</f>
+        <v>98.181818181818187</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>215.21549615859939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+        <v>482.84139524806432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <f>MAX(B$2:B$6)</f>
-        <v>8119</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="1">MAX(C$2:C$6)</f>
-        <v>105</v>
-      </c>
-      <c r="D11">
+      <c r="B15">
+        <f>MAX((B$2:B$12))</f>
+        <v>8835</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="1">MAX((C$2:C$12))</f>
+        <v>107</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="1"/>
-        <v>292.563856363296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+        <v>1241.1199295520701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <f>MIN(B$2:B$6)</f>
-        <v>7214</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:D12" si="2">MIN(C$2:C$6)</f>
-        <v>89</v>
-      </c>
-      <c r="D12">
+      <c r="B16">
+        <f>MIN(B$2:B$12)</f>
+        <v>7104</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="2">MIN(C$2:C$12)</f>
+        <v>88</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="2"/>
         <v>144.692310094833</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <f>MEDIAN(B$2:B$6)</f>
-        <v>7631</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="3">MEDIAN(C$2:C$6)</f>
-        <v>97</v>
-      </c>
-      <c r="D13">
+      <c r="B17">
+        <f>MEDIAN(B$2:B$12)</f>
+        <v>7888</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="3">MEDIAN(C$2:C$12)</f>
+        <v>99</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="3"/>
-        <v>219.34012579917899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+        <v>250.500393152236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.PERCENTILE.INC(B$2:B$6, 0.97)</f>
-        <v>8114.92</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:D14" si="4">_xlfn.PERCENTILE.INC(C$2:C$6, 0.97)</f>
-        <v>104.28</v>
-      </c>
-      <c r="D14">
+      <c r="B18">
+        <f>_xlfn.PERCENTILE.INC((B$2:B$12), 0.97)</f>
+        <v>8620.1999999999989</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:D18" si="4">_xlfn.PERCENTILE.INC((C$2:C$12), 0.97)</f>
+        <v>106.4</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="4"/>
-        <v>287.51624077796879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+        <v>1188.5024289131079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <f>_xlfn.PERCENTILE.INC((B$2:B$6), 0.05)</f>
-        <v>7228.2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:D15" si="5">_xlfn.PERCENTILE.INC((C$2:C$6), 0.05)</f>
-        <v>89.6</v>
-      </c>
-      <c r="D15">
+      <c r="B19">
+        <f>_xlfn.PERCENTILE.INC((B$2:B$12), 0.05)</f>
+        <v>7159</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="5">_xlfn.PERCENTILE.INC((C$2:C$12), 0.05)</f>
+        <v>88.5</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="5"/>
-        <v>149.55000715255701</v>
+        <v>156.836552739143</v>
       </c>
     </row>
   </sheetData>
